--- a/src/ProjectDat.xlsx
+++ b/src/ProjectDat.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="ProjectDat" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="36">
   <si>
     <t>Day</t>
   </si>
@@ -996,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S53"/>
+  <dimension ref="A1:S57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S52" sqref="S52"/>
+      <selection activeCell="S55" sqref="S55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3978,7 +3978,7 @@
         <v>28.08</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>7.55</v>
       </c>
       <c r="G51">
         <v>23.19</v>
@@ -3988,7 +3988,7 @@
       </c>
       <c r="I51">
         <f t="shared" si="0"/>
-        <v>51.269999999999996</v>
+        <v>58.819999999999993</v>
       </c>
       <c r="J51">
         <v>7.8</v>
@@ -4022,10 +4022,364 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B52" s="1"/>
+      <c r="A52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="1">
+        <v>42593</v>
+      </c>
+      <c r="C52">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="D52">
+        <v>40</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>23.95</v>
+      </c>
+      <c r="G52">
+        <v>21.86</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <f>SUM(C52:H52)</f>
+        <v>105.8</v>
+      </c>
+      <c r="J52">
+        <v>8.1</v>
+      </c>
+      <c r="K52">
+        <v>1.4</v>
+      </c>
+      <c r="L52" t="s">
+        <v>34</v>
+      </c>
+      <c r="M52">
+        <v>6</v>
+      </c>
+      <c r="N52">
+        <v>3</v>
+      </c>
+      <c r="O52">
+        <v>2</v>
+      </c>
+      <c r="P52">
+        <v>6</v>
+      </c>
+      <c r="Q52">
+        <v>2</v>
+      </c>
+      <c r="R52">
+        <v>2</v>
+      </c>
+      <c r="S52" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B53" s="1"/>
+      <c r="A53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="1">
+        <v>42594</v>
+      </c>
+      <c r="C53">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>116.59</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>19.8</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <f t="shared" ref="I53:I57" si="1">SUM(C53:H53)</f>
+        <v>155.38000000000002</v>
+      </c>
+      <c r="J53">
+        <v>7.8</v>
+      </c>
+      <c r="K53">
+        <v>1.6</v>
+      </c>
+      <c r="L53" t="s">
+        <v>34</v>
+      </c>
+      <c r="M53">
+        <v>7</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53">
+        <v>4</v>
+      </c>
+      <c r="P53">
+        <v>5</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+      <c r="R53">
+        <v>1</v>
+      </c>
+      <c r="S53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" s="1">
+        <v>42595</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>24.01</v>
+      </c>
+      <c r="G54">
+        <v>45.56</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="1"/>
+        <v>69.570000000000007</v>
+      </c>
+      <c r="J54">
+        <v>22.3</v>
+      </c>
+      <c r="K54">
+        <v>2.5</v>
+      </c>
+      <c r="L54" t="s">
+        <v>34</v>
+      </c>
+      <c r="M54">
+        <v>9</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>3</v>
+      </c>
+      <c r="P54">
+        <v>6</v>
+      </c>
+      <c r="Q54">
+        <v>1</v>
+      </c>
+      <c r="R54">
+        <v>4</v>
+      </c>
+      <c r="S54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" s="1">
+        <v>42596</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>31.89</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="1"/>
+        <v>68.48</v>
+      </c>
+      <c r="J55">
+        <v>22.2</v>
+      </c>
+      <c r="K55">
+        <v>3.6</v>
+      </c>
+      <c r="L55" t="s">
+        <v>34</v>
+      </c>
+      <c r="M55">
+        <v>7</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>2</v>
+      </c>
+      <c r="P55">
+        <v>5</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>5</v>
+      </c>
+      <c r="S55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" s="1">
+        <v>42597</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>21.36</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="1"/>
+        <v>21.36</v>
+      </c>
+      <c r="J56">
+        <v>7.8</v>
+      </c>
+      <c r="K56">
+        <v>1.2</v>
+      </c>
+      <c r="L56" t="s">
+        <v>34</v>
+      </c>
+      <c r="M56">
+        <v>6</v>
+      </c>
+      <c r="N56">
+        <v>2</v>
+      </c>
+      <c r="O56">
+        <v>3</v>
+      </c>
+      <c r="P56">
+        <v>4</v>
+      </c>
+      <c r="Q56">
+        <v>2</v>
+      </c>
+      <c r="R56">
+        <v>1</v>
+      </c>
+      <c r="S56" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" s="1">
+        <v>42598</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>18.489999999999998</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>141.94999999999999</v>
+      </c>
+      <c r="G57">
+        <v>24.59</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="1"/>
+        <v>185.03</v>
+      </c>
+      <c r="J57">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="K57">
+        <v>1.5</v>
+      </c>
+      <c r="L57" t="s">
+        <v>34</v>
+      </c>
+      <c r="M57">
+        <v>8</v>
+      </c>
+      <c r="N57">
+        <v>3</v>
+      </c>
+      <c r="O57">
+        <v>2</v>
+      </c>
+      <c r="P57">
+        <v>2</v>
+      </c>
+      <c r="Q57">
+        <v>2</v>
+      </c>
+      <c r="R57">
+        <v>2</v>
+      </c>
+      <c r="S57" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
